--- a/data/Flor_fruc.xlsx
+++ b/data/Flor_fruc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandroponce/Dropbox/GitHub/Conabio_Frijol/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandroponce/Dropbox/GitHub/conabio_frijol/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="35900" windowHeight="15480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flor_fruc" sheetId="1" r:id="rId1"/>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -810,7 +810,7 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3159,10 +3159,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4546,7 +4546,7 @@
         <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -4605,7 +4605,7 @@
         <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
